--- a/src/files/МытищиRasp.xlsx
+++ b/src/files/МытищиRasp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870108B-18E9-4442-BEC1-59B82A51EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1125" yWindow="210" windowWidth="11130" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -308,10 +309,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -476,17 +477,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -564,7 +571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -677,6 +690,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -712,6 +742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -887,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18:AC18"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,13 +976,14 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C7" s="6"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="W7" s="6"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -1237,19 +1285,19 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V18" s="21"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
       <c r="AD18" s="11"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.3">
@@ -1695,10 +1743,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B21:AC23"/>
-    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="W18:AC18"/>
+    <mergeCell ref="Y7:AA7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
